--- a/Hardware/Betweener BOM.xlsx
+++ b/Hardware/Betweener BOM.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lob/Programming/git/Betweener/Hardware/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -229,46 +237,62 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="'Arial'"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,100 +300,388 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.29"/>
-    <col customWidth="1" min="3" max="3" width="30.86"/>
-    <col customWidth="1" min="4" max="4" width="9.0"/>
-    <col customWidth="1" min="5" max="5" width="10.86"/>
-    <col customWidth="1" min="6" max="6" width="10.29"/>
-    <col customWidth="1" min="7" max="7" width="7.57"/>
-    <col customWidth="1" min="8" max="10" width="27.0"/>
-    <col customWidth="1" min="11" max="11" width="23.14"/>
-    <col customWidth="1" min="12" max="12" width="33.29"/>
-    <col customWidth="1" min="13" max="13" width="24.71"/>
-    <col customWidth="1" min="14" max="14" width="24.29"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,87 +723,87 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="13">
       <c r="F2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>4.0</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F24" si="1">PRODUCT(D3:E3)</f>
-        <v>0.048</v>
+        <f t="shared" ref="F3:F24" si="0">PRODUCT(D3:E3)</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>HYPERLINK("https://www.mouser.com/ProductDetail/Yageo/CFR-25JR-52-100R?qs=sGAEpiMZZMu61qfTUdNhG46uveXc7ceAq96updtH0Lo%3d","603-CFR-25JR-52100R")</f>
         <v>603-CFR-25JR-52100R</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="13">
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.216</v>
+        <f t="shared" si="0"/>
+        <v>0.21599999999999997</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="14">
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>0.13</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="14">
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>0.02</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="14">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -499,13 +811,13 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>0.1</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -513,19 +825,19 @@
         <v>603-CFR-25JR-52220R</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="13">
       <c r="A8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0.12</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="H8" s="4" t="str">
@@ -533,217 +845,217 @@
         <v>859-LTL-4254</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="13">
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
         <v>0.23</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" ht="13">
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.56</v>
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" ht="13">
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>0.88</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.76</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" ht="13">
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
         <v>0.61</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.05</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" ht="13">
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1">
         <v>0.443</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.101</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" ht="13">
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="8">
         <v>0.46</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" ht="13">
       <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <v>0.53</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.06</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" ht="13">
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>3.15</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" ht="13">
       <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1">
         <v>0.78</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.12</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" ht="13">
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1">
         <v>0.46</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>5.52</v>
+        <f t="shared" si="0"/>
+        <v>5.5200000000000005</v>
       </c>
       <c r="J18" s="4" t="str">
         <f>HYPERLINK("https://www.thonk.co.uk/shop/3-5mm-jacks/","Thonkiconn Jacks (PJ301M-12)")</f>
         <v>Thonkiconn Jacks (PJ301M-12)</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" ht="13">
       <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>1.5</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" ht="13">
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>22.5</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -757,72 +1069,72 @@
         <v>$19.50 directly from PJRC</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" ht="13">
       <c r="C21" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="11">
         <v>0.1</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" ht="13">
       <c r="C22" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="11">
         <v>0.2</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" ht="13">
       <c r="C23" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="11">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="1"/>
-        <v>0.301</v>
+        <f t="shared" si="0"/>
+        <v>0.30099999999999999</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" ht="13">
       <c r="C24" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="14">
         <v>0.11</v>
       </c>
       <c r="F24" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
       <c r="G24" s="12"/>
@@ -832,7 +1144,7 @@
         <v>S9341-ND</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" ht="13">
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -840,7 +1152,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" ht="13">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -848,7 +1160,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>1.35</v>
@@ -865,7 +1177,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" ht="13">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -873,55 +1185,55 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I27" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="e">
         <f>HYPERLINK("https://www.digikey.com/products/en/connectors-interconnects/rectangular-connectors-headers-male-pins/314?k=&amp;pkeyword=&amp;pv88=24&amp;FV=ffe0013a%2Cffec9e0f%2Cfffc0261%2C140716%2C1c0003%2C700002%2Cfc0095%2C1080250%2C114016f%2C1680001%2C16c026f%2C3f00006%2C654001"&amp;"2%2C8000010%2C818000f%2C8d00002%2C9340019%2Cae40008%2Ce1c0008%2C10f00003%2C13bc000c%2C1a740003%2C1bf80001%2C1bfc0009%2C1c00000f%2C1c0c0009%2C1c100014%2C1f140000%2C1f6c0003%2C1f700001%2C1f88014f%2C1f940005%2C1f980001%2C1f9c0001%2C1fa00001%2C1fa40053&amp;quanti"&amp;"ty=0&amp;ColumnSort=0&amp;page=1&amp;pageSize=25","609-4304-ND")</f>
-        <v>609-4304-ND</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1">
       <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="17.25" customHeight="1">
+    <row r="29" spans="1:14" ht="18.75" customHeight="1"/>
+    <row r="30" spans="1:14" ht="17.25" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
         <v>0.54</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F31" si="2">PRODUCT(D30:E30)</f>
+        <f t="shared" ref="F30:F31" si="1">PRODUCT(D30:E30)</f>
         <v>1.08</v>
       </c>
       <c r="H30" s="4" t="str">
         <f>HYPERLINK("https://www.mouser.com/ProductDetail/Harwin/R30-3001002?qs=%2fha2pyFadujM3abXvjPvEsRnthYHcP3Cr%252bL%252blzLqeHHEafI7LgZaAw%3d%3d","855-R30-3001002 ")</f>
-        <v>855-R30-3001002 </v>
+        <v xml:space="preserve">855-R30-3001002 </v>
       </c>
       <c r="M30" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" ht="13">
       <c r="C31" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1">
         <v>0.21</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
       <c r="H31" s="4" t="str">
@@ -929,7 +1241,7 @@
         <v>534-9191-3</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" ht="13">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -937,51 +1249,52 @@
         <v>64</v>
       </c>
       <c r="D32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="13">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" ht="13">
       <c r="C35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F35">
         <f>SUM(F3:F34)</f>
-        <v>55.666</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>55.713999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="13">
       <c r="C36" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F36">
         <f>F35</f>
-        <v>55.666</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>55.713999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="13">
       <c r="A38" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:12" ht="13">
       <c r="C39" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
         <v>6.5</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F40" si="3">PRODUCT(D39:E39)</f>
+        <f t="shared" ref="F39:F40" si="2">PRODUCT(D39:E39)</f>
         <v>6.5</v>
       </c>
       <c r="J39" s="1"/>
@@ -989,25 +1302,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" ht="13">
       <c r="C40" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>6.5</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:12" ht="13">
       <c r="A42" s="1"/>
     </row>
   </sheetData>
@@ -1015,29 +1328,28 @@
     <mergeCell ref="A38:B38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H4"/>
-    <hyperlink r:id="rId2" ref="H5"/>
-    <hyperlink r:id="rId3" ref="H6"/>
-    <hyperlink r:id="rId4" ref="H9"/>
-    <hyperlink r:id="rId5" ref="H10"/>
-    <hyperlink r:id="rId6" ref="I11"/>
-    <hyperlink r:id="rId7" ref="I12"/>
-    <hyperlink r:id="rId8" ref="I13"/>
-    <hyperlink r:id="rId9" ref="I14"/>
-    <hyperlink r:id="rId10" ref="H15"/>
-    <hyperlink r:id="rId11" ref="H16"/>
-    <hyperlink r:id="rId12" ref="H17"/>
-    <hyperlink r:id="rId13" ref="H19"/>
-    <hyperlink r:id="rId14" ref="H20"/>
-    <hyperlink r:id="rId15" ref="H21"/>
-    <hyperlink r:id="rId16" ref="H22"/>
-    <hyperlink r:id="rId17" ref="H23"/>
-    <hyperlink r:id="rId18" ref="L26"/>
-    <hyperlink r:id="rId19" location="93655A102" ref="M30"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M30" r:id="rId19" location="93655A102" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId20"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>